--- a/biology/Zoologie/Glamorgan_(race_bovine)/Glamorgan_(race_bovine).xlsx
+++ b/biology/Zoologie/Glamorgan_(race_bovine)/Glamorgan_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La glamorgan est une race bovine britannique.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une ancienne race de Glamorgan au sud du Pays de Galles. Elle fut longtemps réputé pour la richesse de son lait et particulièrement la quantité de beurre produite. Elle plaisait au roi d'Angleterre George III qui en fit introduire un troupeau au château de Windsor. Elles y fournissaient lait et force de travail. 
 Au cours du XIXe siècle, elle subit de plein fouet la concurrence de races plus productives : hereford pour la puissance de travail et la conformation de carcasse, ou la Shorthorn pour la production laitière. Des troupeaux entiers furent livrés à l'abattoir pour être remplacés par les races sus-mentionnées. D'autres subirent des croisements et leur patrimoine génétique s'est trouvé absorbé au bout de quelques générations. En 1920, la race fut considérée disparue. 
@@ -546,7 +560,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe rouge avec les ligens dorsales et ventrales blanches. C'est une race de taille moyenne.
 </t>
@@ -577,7 +593,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'était une race laitière réputée pour le gras de son lait qui produisait beaucoup de beurre. Elle était aussi utilisée pour le travail des terres. 
 </t>
